--- a/logs/boat_logs/LevitatorAirboatMaintenanceLog.xlsx
+++ b/logs/boat_logs/LevitatorAirboatMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -188,10 +188,13 @@
     <t>trimmed off bad winch strap, installed strap protector</t>
   </si>
   <si>
-    <t xml:space="preserve">estimated total hours by dividing 14.9 by 17 trips since new odometer installed to get avg hours per trip (0.9).  Multiply this by 52.  Therefore true motor hours equals current reading plus 30.  </t>
-  </si>
-  <si>
     <t>installed GPS mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimated total hours by dividing 14.9 by 17 trips since new odometer installed to get avg hours per trip (0.9).  Multiply this by 36 to estimate total hours prior to new odometer.  Therefore true motor hours equals current reading plus 32.  </t>
+  </si>
+  <si>
+    <t>installed, bow cleats, anchor holder, new bow line</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z89"/>
+  <dimension ref="A1:AD105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,15 +1367,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43566</v>
       </c>
       <c r="B65">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD65">
+        <f>0.9*36</f>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43567</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43572</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43573</v>
       </c>
@@ -1396,7 +1403,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43592</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>14.9</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43613</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43614</v>
       </c>
@@ -1449,7 +1456,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>17</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43616</v>
       </c>
@@ -1468,20 +1475,20 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G75" s="2">
         <v>43622</v>
       </c>
       <c r="Z75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z76" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43630</v>
       </c>
@@ -1489,10 +1496,10 @@
         <v>120</v>
       </c>
       <c r="Z77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43644</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43647</v>
       </c>
@@ -1508,7 +1515,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43648</v>
       </c>
@@ -1595,6 +1602,134 @@
       </c>
       <c r="D89">
         <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>43703</v>
+      </c>
+      <c r="B90">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>43704</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>43705</v>
+      </c>
+      <c r="B92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>43706</v>
+      </c>
+      <c r="B93">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B94">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G97" s="2">
+        <v>43735</v>
+      </c>
+      <c r="J97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G98" s="2">
+        <v>43749</v>
+      </c>
+      <c r="K98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G99" s="2">
+        <v>43763</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>43766</v>
+      </c>
+      <c r="B100">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B102">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B103">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B105">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/logs/boat_logs/LevitatorAirboatMaintenanceLog.xlsx
+++ b/logs/boat_logs/LevitatorAirboatMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>installed, bow cleats, anchor holder, new bow line</t>
+  </si>
+  <si>
+    <t>oil filter</t>
+  </si>
+  <si>
+    <t>PF46E</t>
+  </si>
+  <si>
+    <t>5W30</t>
+  </si>
+  <si>
+    <t>oil change</t>
   </si>
 </sst>
 </file>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD105"/>
+  <dimension ref="A1:AD110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +588,17 @@
         <v>45</v>
       </c>
     </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
@@ -1416,7 +1439,8 @@
         <v>14.9</v>
       </c>
       <c r="D70">
-        <v>44.9</v>
+        <f>C70+32</f>
+        <v>46.9</v>
       </c>
       <c r="G70" s="2">
         <v>43608</v>
@@ -1461,7 +1485,8 @@
         <v>17</v>
       </c>
       <c r="D73">
-        <v>47</v>
+        <f t="shared" ref="D73:D105" si="0">C73+32</f>
+        <v>49</v>
       </c>
       <c r="G73" s="2">
         <v>43615</v>
@@ -1601,7 +1626,8 @@
         <v>27</v>
       </c>
       <c r="D89">
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -1730,6 +1756,56 @@
       </c>
       <c r="B105">
         <v>70</v>
+      </c>
+      <c r="C105">
+        <v>35</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>43811</v>
+      </c>
+      <c r="B106">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>43813</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>43814</v>
+      </c>
+      <c r="B108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>43815</v>
+      </c>
+      <c r="B109">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G110" s="2">
+        <v>43817</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/logs/boat_logs/LevitatorAirboatMaintenanceLog.xlsx
+++ b/logs/boat_logs/LevitatorAirboatMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -200,13 +200,16 @@
     <t>oil filter</t>
   </si>
   <si>
-    <t>PF46E</t>
-  </si>
-  <si>
     <t>5W30</t>
   </si>
   <si>
     <t>oil change</t>
+  </si>
+  <si>
+    <t>PF48E</t>
+  </si>
+  <si>
+    <t>aprox 7 qrts</t>
   </si>
 </sst>
 </file>
@@ -531,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q114" sqref="Q114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +596,13 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" t="s">
-        <v>59</v>
+      <c r="J4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1805,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="Z110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
